--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-allergyintolerance.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-allergyintolerance.xlsx
@@ -660,7 +660,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_AllergyIntolerance_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS</t>
   </si>
   <si>
     <t>substance/product: